--- a/documentation/FunctionPointAnalysis.xlsx
+++ b/documentation/FunctionPointAnalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gianm\Desktop\UrbanWatch\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CBE363-C0EC-485F-A56F-669B98B65BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926267D1-924A-4E1D-8C13-134CFB5FF981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{459E461F-0BA6-47B4-BAF2-DBDEC70C4A3D}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -422,7 +422,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -737,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB32407-3019-4D7B-8E2D-34A29B57EA21}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="118" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,7 +750,7 @@
     <col min="11" max="11" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -764,57 +763,57 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
@@ -841,11 +840,11 @@
       <c r="L14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>1</v>
       </c>
@@ -872,8 +871,12 @@
       <c r="L15" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="5">
+        <f>SUM(L15:L36)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>2</v>
       </c>
@@ -1473,204 +1476,6 @@
       <c r="K37" s="5"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-    </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D14:E14"/>
